--- a/data/pca/factorExposure/factorExposure_2008-12-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-09.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0187768109318856</v>
+        <v>-0.01743266070569307</v>
       </c>
       <c r="C2">
-        <v>0.01415659131852338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01632128366966165</v>
+      </c>
+      <c r="D2">
+        <v>-0.02504943610396471</v>
+      </c>
+      <c r="E2">
+        <v>-0.01071213845238256</v>
+      </c>
+      <c r="F2">
+        <v>0.003541081790064027</v>
+      </c>
+      <c r="G2">
+        <v>0.03098889687460782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08109808826627858</v>
+        <v>-0.08451377356095653</v>
       </c>
       <c r="C4">
-        <v>0.08655028401229643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0887734330744554</v>
+      </c>
+      <c r="D4">
+        <v>0.01358339574499911</v>
+      </c>
+      <c r="E4">
+        <v>-0.04708346492051532</v>
+      </c>
+      <c r="F4">
+        <v>-0.09234729069641683</v>
+      </c>
+      <c r="G4">
+        <v>-0.05043168650114195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005040234333739285</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0002210099445086634</v>
+      </c>
+      <c r="D5">
+        <v>0.001019690266948565</v>
+      </c>
+      <c r="E5">
+        <v>0.005893613569377986</v>
+      </c>
+      <c r="F5">
+        <v>0.001787716977686944</v>
+      </c>
+      <c r="G5">
+        <v>-0.0006758708262804949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1667495667500483</v>
+        <v>-0.168206747118158</v>
       </c>
       <c r="C6">
-        <v>-0.01624494764088811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.008142990433894612</v>
+      </c>
+      <c r="D6">
+        <v>0.07474426303925923</v>
+      </c>
+      <c r="E6">
+        <v>0.0585590421790352</v>
+      </c>
+      <c r="F6">
+        <v>-0.03673982185312289</v>
+      </c>
+      <c r="G6">
+        <v>0.1383408297543639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05309341955608</v>
+        <v>-0.05519263897120501</v>
       </c>
       <c r="C7">
-        <v>0.05550479446190371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05726390182352412</v>
+      </c>
+      <c r="D7">
+        <v>-0.001983142700763636</v>
+      </c>
+      <c r="E7">
+        <v>-0.0931170716720682</v>
+      </c>
+      <c r="F7">
+        <v>-0.06591206116507223</v>
+      </c>
+      <c r="G7">
+        <v>-0.0316273284498477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04899651826826216</v>
+        <v>-0.0473720182750924</v>
       </c>
       <c r="C8">
-        <v>0.05761392551959966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0557409348622861</v>
+      </c>
+      <c r="D8">
+        <v>-0.04672310173585599</v>
+      </c>
+      <c r="E8">
+        <v>-0.01528518490762009</v>
+      </c>
+      <c r="F8">
+        <v>0.03210433950508727</v>
+      </c>
+      <c r="G8">
+        <v>-0.006161163152087241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05664825471997079</v>
+        <v>-0.06191130877448539</v>
       </c>
       <c r="C9">
-        <v>0.0971621458593388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09671559975096933</v>
+      </c>
+      <c r="D9">
+        <v>0.01506247529185402</v>
+      </c>
+      <c r="E9">
+        <v>-0.04855255521267363</v>
+      </c>
+      <c r="F9">
+        <v>-0.09720129215051808</v>
+      </c>
+      <c r="G9">
+        <v>-0.05936190376876761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1186736749167844</v>
+        <v>-0.1030635038550268</v>
       </c>
       <c r="C10">
-        <v>-0.1569855343295712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1395504985767099</v>
+      </c>
+      <c r="D10">
+        <v>-0.08527854853555686</v>
+      </c>
+      <c r="E10">
+        <v>-0.01915977274288657</v>
+      </c>
+      <c r="F10">
+        <v>0.05466072448800211</v>
+      </c>
+      <c r="G10">
+        <v>-0.05857017011176551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08042457117637482</v>
+        <v>-0.07754959664976718</v>
       </c>
       <c r="C11">
-        <v>0.1370898304229919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1360242122506446</v>
+      </c>
+      <c r="D11">
+        <v>-0.01564944555958179</v>
+      </c>
+      <c r="E11">
+        <v>-0.04234561699623671</v>
+      </c>
+      <c r="F11">
+        <v>-0.06385870949020502</v>
+      </c>
+      <c r="G11">
+        <v>-0.1034676070849932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08186010885375436</v>
+        <v>-0.0775392266033567</v>
       </c>
       <c r="C12">
-        <v>0.1646174058537805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1616082786933045</v>
+      </c>
+      <c r="D12">
+        <v>-0.01213578266117676</v>
+      </c>
+      <c r="E12">
+        <v>-0.07730912811546015</v>
+      </c>
+      <c r="F12">
+        <v>-0.05889693856822281</v>
+      </c>
+      <c r="G12">
+        <v>-0.09540990103607822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0410105140819289</v>
+        <v>-0.04337248352117833</v>
       </c>
       <c r="C13">
-        <v>0.07198410531417768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07574470006950268</v>
+      </c>
+      <c r="D13">
+        <v>-0.0315439965706073</v>
+      </c>
+      <c r="E13">
+        <v>-0.08225910765214264</v>
+      </c>
+      <c r="F13">
+        <v>-0.05239616892021241</v>
+      </c>
+      <c r="G13">
+        <v>-0.0204157981515392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01984914913393839</v>
+        <v>-0.02237173479959498</v>
       </c>
       <c r="C14">
-        <v>0.05099100111260213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0534745783191021</v>
+      </c>
+      <c r="D14">
+        <v>-0.02954993750289725</v>
+      </c>
+      <c r="E14">
+        <v>-0.04425721656517467</v>
+      </c>
+      <c r="F14">
+        <v>-0.05298408287489034</v>
+      </c>
+      <c r="G14">
+        <v>-0.06130996342333205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03247190534966678</v>
+        <v>-0.03231329208389334</v>
       </c>
       <c r="C15">
-        <v>0.06826068543832554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06581387834307859</v>
+      </c>
+      <c r="D15">
+        <v>0.02316645237964352</v>
+      </c>
+      <c r="E15">
+        <v>-0.050216168221857</v>
+      </c>
+      <c r="F15">
+        <v>-0.02964516885471706</v>
+      </c>
+      <c r="G15">
+        <v>-0.02054947500112144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05962430806104072</v>
+        <v>-0.05722027655667728</v>
       </c>
       <c r="C16">
-        <v>0.1582263874818238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1573629639844599</v>
+      </c>
+      <c r="D16">
+        <v>-0.01122216683100202</v>
+      </c>
+      <c r="E16">
+        <v>-0.02749620400269474</v>
+      </c>
+      <c r="F16">
+        <v>-0.0652217093472687</v>
+      </c>
+      <c r="G16">
+        <v>-0.1224708314966163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008859558648828959</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004027026196534056</v>
+      </c>
+      <c r="D17">
+        <v>0.004523269259206731</v>
+      </c>
+      <c r="E17">
+        <v>-0.002470292025737788</v>
+      </c>
+      <c r="F17">
+        <v>0.01845246148033425</v>
+      </c>
+      <c r="G17">
+        <v>-0.004502341952256044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04755368552150819</v>
+        <v>-0.05765512389319714</v>
       </c>
       <c r="C18">
-        <v>0.05306531845714897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04626771092649851</v>
+      </c>
+      <c r="D18">
+        <v>0.03448449748695042</v>
+      </c>
+      <c r="E18">
+        <v>0.06181235423645474</v>
+      </c>
+      <c r="F18">
+        <v>0.03652564733028692</v>
+      </c>
+      <c r="G18">
+        <v>0.1910002787166472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05966533482004088</v>
+        <v>-0.05838666582189634</v>
       </c>
       <c r="C20">
-        <v>0.1078528105302208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1044821553155148</v>
+      </c>
+      <c r="D20">
+        <v>0.005287371861485179</v>
+      </c>
+      <c r="E20">
+        <v>-0.06521513330912428</v>
+      </c>
+      <c r="F20">
+        <v>-0.05351213952702652</v>
+      </c>
+      <c r="G20">
+        <v>-0.05363002418127861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04412947908875296</v>
+        <v>-0.045724031911041</v>
       </c>
       <c r="C21">
-        <v>0.06730725999238986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06356085510175703</v>
+      </c>
+      <c r="D21">
+        <v>-0.01426686238426424</v>
+      </c>
+      <c r="E21">
+        <v>-0.0349291439523331</v>
+      </c>
+      <c r="F21">
+        <v>-0.06623293361930349</v>
+      </c>
+      <c r="G21">
+        <v>-0.07153342412115211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04540682791507112</v>
+        <v>-0.04551872213738387</v>
       </c>
       <c r="C22">
-        <v>0.03821230186441111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04161375487280808</v>
+      </c>
+      <c r="D22">
+        <v>-0.07493681917612767</v>
+      </c>
+      <c r="E22">
+        <v>0.1881598707234546</v>
+      </c>
+      <c r="F22">
+        <v>0.05795782437181009</v>
+      </c>
+      <c r="G22">
+        <v>-0.02807592447374428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04541693919324399</v>
+        <v>-0.04552753091451615</v>
       </c>
       <c r="C23">
-        <v>0.03820530745993332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04160774457290702</v>
+      </c>
+      <c r="D23">
+        <v>-0.0749810808738417</v>
+      </c>
+      <c r="E23">
+        <v>0.1882033382280134</v>
+      </c>
+      <c r="F23">
+        <v>0.05800999050226233</v>
+      </c>
+      <c r="G23">
+        <v>-0.0280848870779839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06647500766857942</v>
+        <v>-0.06468024446922084</v>
       </c>
       <c r="C24">
-        <v>0.1438533573827145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1402609841670921</v>
+      </c>
+      <c r="D24">
+        <v>-0.01054578320298741</v>
+      </c>
+      <c r="E24">
+        <v>-0.05028887652522139</v>
+      </c>
+      <c r="F24">
+        <v>-0.06397417524630791</v>
+      </c>
+      <c r="G24">
+        <v>-0.06642521135763807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07528923221434446</v>
+        <v>-0.0722573141908297</v>
       </c>
       <c r="C25">
-        <v>0.1260208878480268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1238169761776806</v>
+      </c>
+      <c r="D25">
+        <v>-0.01756744065075614</v>
+      </c>
+      <c r="E25">
+        <v>-0.08084401155224145</v>
+      </c>
+      <c r="F25">
+        <v>-0.06864476637308256</v>
+      </c>
+      <c r="G25">
+        <v>-0.08747427745238556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05916796497566213</v>
+        <v>-0.06256850496351361</v>
       </c>
       <c r="C26">
-        <v>0.07083385359621484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07504953481329678</v>
+      </c>
+      <c r="D26">
+        <v>-0.03763353889395361</v>
+      </c>
+      <c r="E26">
+        <v>-0.0728439480961509</v>
+      </c>
+      <c r="F26">
+        <v>-0.04164374555842271</v>
+      </c>
+      <c r="G26">
+        <v>-0.1261746289826481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.168757522568183</v>
+        <v>-0.1734897300221864</v>
       </c>
       <c r="C28">
-        <v>-0.2260838137904111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2284808120684698</v>
+      </c>
+      <c r="D28">
+        <v>-0.09534454278609399</v>
+      </c>
+      <c r="E28">
+        <v>-0.1186547048672123</v>
+      </c>
+      <c r="F28">
+        <v>-0.02911810367800143</v>
+      </c>
+      <c r="G28">
+        <v>-0.09719485490809439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02576931028210137</v>
+        <v>-0.02690772964138316</v>
       </c>
       <c r="C29">
-        <v>0.05634809584695568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05641581975673888</v>
+      </c>
+      <c r="D29">
+        <v>-0.04981118774457811</v>
+      </c>
+      <c r="E29">
+        <v>-0.03320098040897493</v>
+      </c>
+      <c r="F29">
+        <v>-0.04077925165429393</v>
+      </c>
+      <c r="G29">
+        <v>-0.05144898287562666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02984877958178066</v>
+        <v>-0.03338328178446692</v>
       </c>
       <c r="C30">
-        <v>0.07278385810558417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07729731195396086</v>
+      </c>
+      <c r="D30">
+        <v>0.03965858604782357</v>
+      </c>
+      <c r="E30">
+        <v>-0.1304749405760621</v>
+      </c>
+      <c r="F30">
+        <v>-0.0774279644944257</v>
+      </c>
+      <c r="G30">
+        <v>-0.0319753766766821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05509285687041438</v>
+        <v>-0.05394725074958299</v>
       </c>
       <c r="C31">
-        <v>0.03483020809846896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03724068823253981</v>
+      </c>
+      <c r="D31">
+        <v>-0.02032151792463489</v>
+      </c>
+      <c r="E31">
+        <v>0.03498044018042555</v>
+      </c>
+      <c r="F31">
+        <v>-0.03646540807690921</v>
+      </c>
+      <c r="G31">
+        <v>-0.04009675984939005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04568407748164365</v>
+        <v>-0.0490238231420584</v>
       </c>
       <c r="C32">
-        <v>0.05755476665139213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05455229946300066</v>
+      </c>
+      <c r="D32">
+        <v>0.01071814056720002</v>
+      </c>
+      <c r="E32">
+        <v>-0.04844291025457578</v>
+      </c>
+      <c r="F32">
+        <v>0.005650715732918389</v>
+      </c>
+      <c r="G32">
+        <v>-0.05086956461464642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07961677958967138</v>
+        <v>-0.08344467489060678</v>
       </c>
       <c r="C33">
-        <v>0.1136195190140933</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1219694385932164</v>
+      </c>
+      <c r="D33">
+        <v>-0.01706929985192033</v>
+      </c>
+      <c r="E33">
+        <v>-0.04052490657489338</v>
+      </c>
+      <c r="F33">
+        <v>-0.04379985612051771</v>
+      </c>
+      <c r="G33">
+        <v>-0.02747093756615594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05434116022996206</v>
+        <v>-0.05313628817004121</v>
       </c>
       <c r="C34">
-        <v>0.128139919581894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1273254275361046</v>
+      </c>
+      <c r="D34">
+        <v>0.01272569418671231</v>
+      </c>
+      <c r="E34">
+        <v>-0.023260118231499</v>
+      </c>
+      <c r="F34">
+        <v>-0.04410481480543291</v>
+      </c>
+      <c r="G34">
+        <v>-0.1422325034490838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02757791927509794</v>
+        <v>-0.02974491973261681</v>
       </c>
       <c r="C35">
-        <v>0.01919049366338116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02206173611066537</v>
+      </c>
+      <c r="D35">
+        <v>-0.009315694858284958</v>
+      </c>
+      <c r="E35">
+        <v>-0.02229539487688647</v>
+      </c>
+      <c r="F35">
+        <v>-0.003366094416184903</v>
+      </c>
+      <c r="G35">
+        <v>-0.03879212463725996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02781431244805891</v>
+        <v>-0.0301543468997912</v>
       </c>
       <c r="C36">
-        <v>0.05888575074367369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05668034625205341</v>
+      </c>
+      <c r="D36">
+        <v>0.02676963048495347</v>
+      </c>
+      <c r="E36">
+        <v>0.006161033994936739</v>
+      </c>
+      <c r="F36">
+        <v>0.0007855448723020394</v>
+      </c>
+      <c r="G36">
+        <v>-0.1178448030555872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0006191728151931467</v>
+        <v>-0.004892711139176094</v>
       </c>
       <c r="C37">
-        <v>-0.0006007316589465516</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006639070645716035</v>
+      </c>
+      <c r="D37">
+        <v>-0.008261907152854232</v>
+      </c>
+      <c r="E37">
+        <v>-0.006531936994383887</v>
+      </c>
+      <c r="F37">
+        <v>-0.01140941810299138</v>
+      </c>
+      <c r="G37">
+        <v>0.004615905108971776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08204351401445761</v>
+        <v>-0.07683731988411002</v>
       </c>
       <c r="C39">
-        <v>0.1524342275328871</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1458174706869438</v>
+      </c>
+      <c r="D39">
+        <v>-0.07265150652766152</v>
+      </c>
+      <c r="E39">
+        <v>-0.0617015423216738</v>
+      </c>
+      <c r="F39">
+        <v>-0.08046318469859107</v>
+      </c>
+      <c r="G39">
+        <v>-0.1647504964538186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05240015851141396</v>
+        <v>-0.05456786003871587</v>
       </c>
       <c r="C40">
-        <v>0.07305350274406414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07873119782963228</v>
+      </c>
+      <c r="D40">
+        <v>-0.01952435125680678</v>
+      </c>
+      <c r="E40">
+        <v>-0.05875539796287469</v>
+      </c>
+      <c r="F40">
+        <v>0.0283255056718128</v>
+      </c>
+      <c r="G40">
+        <v>-0.01997595010562511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03115525863869771</v>
+        <v>-0.03072928208871891</v>
       </c>
       <c r="C41">
-        <v>0.02230711413423518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02430439466122287</v>
+      </c>
+      <c r="D41">
+        <v>0.001796357832306972</v>
+      </c>
+      <c r="E41">
+        <v>-0.0001233891437888877</v>
+      </c>
+      <c r="F41">
+        <v>0.0213626780324878</v>
+      </c>
+      <c r="G41">
+        <v>-0.01010984071381825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0450344701843284</v>
+        <v>-0.04264425299172858</v>
       </c>
       <c r="C43">
-        <v>0.03971208503547932</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.038194842105428</v>
+      </c>
+      <c r="D43">
+        <v>-0.03496403637489335</v>
+      </c>
+      <c r="E43">
+        <v>0.03102303181377771</v>
+      </c>
+      <c r="F43">
+        <v>-0.002727408151855156</v>
+      </c>
+      <c r="G43">
+        <v>-0.04743011943623944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05567512708612833</v>
+        <v>-0.0596912790675275</v>
       </c>
       <c r="C44">
-        <v>0.0944047097503475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09629832154810128</v>
+      </c>
+      <c r="D44">
+        <v>0.08531438706914587</v>
+      </c>
+      <c r="E44">
+        <v>-0.09235729324768717</v>
+      </c>
+      <c r="F44">
+        <v>-0.07761446728943966</v>
+      </c>
+      <c r="G44">
+        <v>-0.1219146642147872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0008880064699090998</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006547884442073792</v>
+      </c>
+      <c r="D45">
+        <v>-0.0008041427100651979</v>
+      </c>
+      <c r="E45">
+        <v>0.001371164561068458</v>
+      </c>
+      <c r="F45">
+        <v>-0.00711141970068999</v>
+      </c>
+      <c r="G45">
+        <v>0.0063409079573651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02980137018790281</v>
+        <v>-0.03041569545066376</v>
       </c>
       <c r="C46">
-        <v>0.04611579124171651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04384337419611554</v>
+      </c>
+      <c r="D46">
+        <v>-0.05788682593880373</v>
+      </c>
+      <c r="E46">
+        <v>-0.008912127457415988</v>
+      </c>
+      <c r="F46">
+        <v>-0.04850891134579331</v>
+      </c>
+      <c r="G46">
+        <v>-0.06351064441809334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05731750799292444</v>
+        <v>-0.0545302081664653</v>
       </c>
       <c r="C47">
-        <v>0.04408522867907117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0436207971359469</v>
+      </c>
+      <c r="D47">
+        <v>-0.02999452523017715</v>
+      </c>
+      <c r="E47">
+        <v>0.102619859843688</v>
+      </c>
+      <c r="F47">
+        <v>0.01439651502799296</v>
+      </c>
+      <c r="G47">
+        <v>0.0328788128674516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.05032332352278297</v>
+        <v>-0.05161259730311457</v>
       </c>
       <c r="C48">
-        <v>0.06433751172693113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06450263361234192</v>
+      </c>
+      <c r="D48">
+        <v>-0.004459905811690133</v>
+      </c>
+      <c r="E48">
+        <v>-0.04106981534561183</v>
+      </c>
+      <c r="F48">
+        <v>-0.07085429789314822</v>
+      </c>
+      <c r="G48">
+        <v>-0.03819703022254104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1819316767307085</v>
+        <v>-0.1900059183878332</v>
       </c>
       <c r="C49">
-        <v>-0.03031050119464364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.0270718325679647</v>
+      </c>
+      <c r="D49">
+        <v>0.06641329005421677</v>
+      </c>
+      <c r="E49">
+        <v>-0.1090227165132005</v>
+      </c>
+      <c r="F49">
+        <v>0.01715295276638091</v>
+      </c>
+      <c r="G49">
+        <v>0.1244312418799289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05431152406567138</v>
+        <v>-0.05393193805212756</v>
       </c>
       <c r="C50">
-        <v>0.03558704661460665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.038276437197647</v>
+      </c>
+      <c r="D50">
+        <v>-0.0002673132505554361</v>
+      </c>
+      <c r="E50">
+        <v>0.02649135798081689</v>
+      </c>
+      <c r="F50">
+        <v>-0.04624129339600541</v>
+      </c>
+      <c r="G50">
+        <v>-0.03580479194882592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1398516177494065</v>
+        <v>-0.1355726223978143</v>
       </c>
       <c r="C52">
-        <v>0.03498539119254434</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03274559702554008</v>
+      </c>
+      <c r="D52">
+        <v>0.06784148816423025</v>
+      </c>
+      <c r="E52">
+        <v>0.1302482873580997</v>
+      </c>
+      <c r="F52">
+        <v>-0.0510247827413881</v>
+      </c>
+      <c r="G52">
+        <v>-0.04947956445022145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1661802225436969</v>
+        <v>-0.1604628712577468</v>
       </c>
       <c r="C53">
-        <v>-0.01086110762940706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009563169168443398</v>
+      </c>
+      <c r="D53">
+        <v>0.100902949287768</v>
+      </c>
+      <c r="E53">
+        <v>0.1725742428272945</v>
+      </c>
+      <c r="F53">
+        <v>-0.07519973540517204</v>
+      </c>
+      <c r="G53">
+        <v>0.04341180203084409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01368870252285195</v>
+        <v>-0.01449687961506587</v>
       </c>
       <c r="C54">
-        <v>0.04136024885875497</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04208686872882361</v>
+      </c>
+      <c r="D54">
+        <v>-0.01673299524786281</v>
+      </c>
+      <c r="E54">
+        <v>-0.02966623976377395</v>
+      </c>
+      <c r="F54">
+        <v>-0.04062483222624826</v>
+      </c>
+      <c r="G54">
+        <v>-0.0760617025751277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1222857860540718</v>
+        <v>-0.1208421827287508</v>
       </c>
       <c r="C55">
-        <v>0.01277807081099152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0129897930482604</v>
+      </c>
+      <c r="D55">
+        <v>0.04623365884004228</v>
+      </c>
+      <c r="E55">
+        <v>0.169377423290387</v>
+      </c>
+      <c r="F55">
+        <v>-0.1069950259908047</v>
+      </c>
+      <c r="G55">
+        <v>-0.06345794043109024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1817766935812141</v>
+        <v>-0.1770607553809026</v>
       </c>
       <c r="C56">
-        <v>-0.01414642132980957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01533259221198112</v>
+      </c>
+      <c r="D56">
+        <v>0.1144010864461869</v>
+      </c>
+      <c r="E56">
+        <v>0.2062151279843713</v>
+      </c>
+      <c r="F56">
+        <v>-0.05038890559025903</v>
+      </c>
+      <c r="G56">
+        <v>0.04657085810576662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04243519221070426</v>
+        <v>-0.04200751783311278</v>
       </c>
       <c r="C58">
-        <v>0.09642403353056136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1071460480227735</v>
+      </c>
+      <c r="D58">
+        <v>-0.03945677974777972</v>
+      </c>
+      <c r="E58">
+        <v>-0.01826453227072277</v>
+      </c>
+      <c r="F58">
+        <v>-0.029122569929015</v>
+      </c>
+      <c r="G58">
+        <v>-0.04222988857552354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1795186174366653</v>
+        <v>-0.1862756992331549</v>
       </c>
       <c r="C59">
-        <v>-0.1603907476868037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1677534154958545</v>
+      </c>
+      <c r="D59">
+        <v>-0.1113606379945071</v>
+      </c>
+      <c r="E59">
+        <v>-0.04487085650722979</v>
+      </c>
+      <c r="F59">
+        <v>0.007566991572293816</v>
+      </c>
+      <c r="G59">
+        <v>-0.09215744265532667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2059921134563306</v>
+        <v>-0.2048279145944148</v>
       </c>
       <c r="C60">
-        <v>0.003109896088199557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.006749926150265659</v>
+      </c>
+      <c r="D60">
+        <v>0.07412863233811837</v>
+      </c>
+      <c r="E60">
+        <v>0.01953007983158173</v>
+      </c>
+      <c r="F60">
+        <v>0.07062329360208401</v>
+      </c>
+      <c r="G60">
+        <v>0.2050748880364833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06343589963058177</v>
+        <v>-0.06138762714933654</v>
       </c>
       <c r="C61">
-        <v>0.130439232982021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1270523492439355</v>
+      </c>
+      <c r="D61">
+        <v>-0.03189711317321039</v>
+      </c>
+      <c r="E61">
+        <v>-0.06843252572775686</v>
+      </c>
+      <c r="F61">
+        <v>-0.04538798546068637</v>
+      </c>
+      <c r="G61">
+        <v>-0.112023218878966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1720145774666395</v>
+        <v>-0.1682281844209134</v>
       </c>
       <c r="C62">
-        <v>-0.01029022505310101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01077487649189094</v>
+      </c>
+      <c r="D62">
+        <v>0.08578967408524905</v>
+      </c>
+      <c r="E62">
+        <v>0.1860740283712339</v>
+      </c>
+      <c r="F62">
+        <v>-0.04180473833616927</v>
+      </c>
+      <c r="G62">
+        <v>0.005481654997010386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04359835196147695</v>
+        <v>-0.04574972413927042</v>
       </c>
       <c r="C63">
-        <v>0.0774049356252271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08140509247762462</v>
+      </c>
+      <c r="D63">
+        <v>-0.01926292443001562</v>
+      </c>
+      <c r="E63">
+        <v>-0.0293485144576626</v>
+      </c>
+      <c r="F63">
+        <v>-0.007020844411763753</v>
+      </c>
+      <c r="G63">
+        <v>-0.105555971454898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1147377364971318</v>
+        <v>-0.1122773016269717</v>
       </c>
       <c r="C64">
-        <v>0.06191040299006915</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06388126905074788</v>
+      </c>
+      <c r="D64">
+        <v>0.05631622565566657</v>
+      </c>
+      <c r="E64">
+        <v>-0.001918667835702974</v>
+      </c>
+      <c r="F64">
+        <v>-0.003283900599000435</v>
+      </c>
+      <c r="G64">
+        <v>0.01540721057499163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1571019449525591</v>
+        <v>-0.1604597100473644</v>
       </c>
       <c r="C65">
-        <v>-0.0538189286648002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04333297150058822</v>
+      </c>
+      <c r="D65">
+        <v>0.02774588871384161</v>
+      </c>
+      <c r="E65">
+        <v>0.02780339886389778</v>
+      </c>
+      <c r="F65">
+        <v>-0.06283271025331449</v>
+      </c>
+      <c r="G65">
+        <v>0.1438387641924208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09740059830874361</v>
+        <v>-0.09304294658754883</v>
       </c>
       <c r="C66">
-        <v>0.1288420402174094</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1269377539296911</v>
+      </c>
+      <c r="D66">
+        <v>-0.04494560558775234</v>
+      </c>
+      <c r="E66">
+        <v>-0.0662031557926557</v>
+      </c>
+      <c r="F66">
+        <v>-0.05118303011613243</v>
+      </c>
+      <c r="G66">
+        <v>-0.1442913468382079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04980282657254088</v>
+        <v>-0.04322669049313593</v>
       </c>
       <c r="C67">
-        <v>0.08430892578948741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07733682332564172</v>
+      </c>
+      <c r="D67">
+        <v>-0.0343508179887456</v>
+      </c>
+      <c r="E67">
+        <v>0.07907349212234398</v>
+      </c>
+      <c r="F67">
+        <v>0.03675867327553992</v>
+      </c>
+      <c r="G67">
+        <v>-0.03267934690099409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1452925813450415</v>
+        <v>-0.1459165093392092</v>
       </c>
       <c r="C68">
-        <v>-0.2591861390259955</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2532877862127165</v>
+      </c>
+      <c r="D68">
+        <v>-0.07460417145392788</v>
+      </c>
+      <c r="E68">
+        <v>-0.1320237239658928</v>
+      </c>
+      <c r="F68">
+        <v>-0.07174646434704166</v>
+      </c>
+      <c r="G68">
+        <v>-0.03496134204169699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0372696797960993</v>
+        <v>-0.03534526953065291</v>
       </c>
       <c r="C69">
-        <v>0.02160942974607516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02516057009144419</v>
+      </c>
+      <c r="D69">
+        <v>0.01394375078813793</v>
+      </c>
+      <c r="E69">
+        <v>0.0758605334302529</v>
+      </c>
+      <c r="F69">
+        <v>0.03260445288050129</v>
+      </c>
+      <c r="G69">
+        <v>-0.03144439188711407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.0790354746722236</v>
+        <v>-0.07714506688874723</v>
       </c>
       <c r="C70">
-        <v>0.09514744064509789</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09816570412681482</v>
+      </c>
+      <c r="D70">
+        <v>-0.05592367020467203</v>
+      </c>
+      <c r="E70">
+        <v>-0.07861081854441329</v>
+      </c>
+      <c r="F70">
+        <v>0.006992606432981214</v>
+      </c>
+      <c r="G70">
+        <v>0.04366537706042861</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.167123732687834</v>
+        <v>-0.1695924873900826</v>
       </c>
       <c r="C71">
-        <v>-0.2603875669034607</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2575633059309156</v>
+      </c>
+      <c r="D71">
+        <v>-0.08660913865344988</v>
+      </c>
+      <c r="E71">
+        <v>-0.1413657758733002</v>
+      </c>
+      <c r="F71">
+        <v>-0.05961858135794607</v>
+      </c>
+      <c r="G71">
+        <v>-0.01432349180603857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1433171620979645</v>
+        <v>-0.1483186686898681</v>
       </c>
       <c r="C72">
-        <v>0.007841567832474075</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.006700256399654709</v>
+      </c>
+      <c r="D72">
+        <v>0.02287592408197017</v>
+      </c>
+      <c r="E72">
+        <v>0.1124878435806936</v>
+      </c>
+      <c r="F72">
+        <v>-0.02190769637330296</v>
+      </c>
+      <c r="G72">
+        <v>-0.04359301999475827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1869459098990831</v>
+        <v>-0.1972480391063293</v>
       </c>
       <c r="C73">
-        <v>0.02184277994391163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02475395902679949</v>
+      </c>
+      <c r="D73">
+        <v>0.07227575494603962</v>
+      </c>
+      <c r="E73">
+        <v>0.05059172218873128</v>
+      </c>
+      <c r="F73">
+        <v>0.03826446158288883</v>
+      </c>
+      <c r="G73">
+        <v>0.05045984586030304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08279784815856951</v>
+        <v>-0.08303304935020386</v>
       </c>
       <c r="C74">
-        <v>0.007177670350984612</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01292698374344425</v>
+      </c>
+      <c r="D74">
+        <v>0.09820762345244265</v>
+      </c>
+      <c r="E74">
+        <v>0.08159414817814739</v>
+      </c>
+      <c r="F74">
+        <v>-0.01814006376205862</v>
+      </c>
+      <c r="G74">
+        <v>-0.001702631926155943</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1206715602687949</v>
+        <v>-0.1133728993804466</v>
       </c>
       <c r="C75">
-        <v>0.02479604884434235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02591956289421756</v>
+      </c>
+      <c r="D75">
+        <v>0.04333919209109875</v>
+      </c>
+      <c r="E75">
+        <v>0.192068482212353</v>
+      </c>
+      <c r="F75">
+        <v>-0.0310748763017894</v>
+      </c>
+      <c r="G75">
+        <v>0.01460565703650375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08039600722754654</v>
+        <v>-0.08753259896308953</v>
       </c>
       <c r="C77">
-        <v>0.1192584472351956</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1261477657211781</v>
+      </c>
+      <c r="D77">
+        <v>-0.007609645742117871</v>
+      </c>
+      <c r="E77">
+        <v>-0.11893522459069</v>
+      </c>
+      <c r="F77">
+        <v>-0.1263247063905714</v>
+      </c>
+      <c r="G77">
+        <v>0.1345236895319332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07320226282603326</v>
+        <v>-0.07973448823171368</v>
       </c>
       <c r="C78">
-        <v>0.1354105982192766</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1380841443715721</v>
+      </c>
+      <c r="D78">
+        <v>-0.07611562419543222</v>
+      </c>
+      <c r="E78">
+        <v>-0.001461395043549154</v>
+      </c>
+      <c r="F78">
+        <v>-0.1130988083847577</v>
+      </c>
+      <c r="G78">
+        <v>0.2154908452564528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1692090482323059</v>
+        <v>-0.164670651588188</v>
       </c>
       <c r="C79">
-        <v>0.01858740259060717</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01804943754408275</v>
+      </c>
+      <c r="D79">
+        <v>0.03049495897807279</v>
+      </c>
+      <c r="E79">
+        <v>0.1535309936046229</v>
+      </c>
+      <c r="F79">
+        <v>-0.0451870660994414</v>
+      </c>
+      <c r="G79">
+        <v>0.01643222030405217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07830255428215688</v>
+        <v>-0.07409878524928881</v>
       </c>
       <c r="C80">
-        <v>0.08380840968252298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07968109969279423</v>
+      </c>
+      <c r="D80">
+        <v>-0.04578721287583534</v>
+      </c>
+      <c r="E80">
+        <v>-0.0809462256702347</v>
+      </c>
+      <c r="F80">
+        <v>0.06055128172787292</v>
+      </c>
+      <c r="G80">
+        <v>-0.1231502017897188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1133872569621611</v>
+        <v>-0.1067919640479325</v>
       </c>
       <c r="C81">
-        <v>-0.009502102226825992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.008181315500894255</v>
+      </c>
+      <c r="D81">
+        <v>0.033137902185463</v>
+      </c>
+      <c r="E81">
+        <v>0.1917797155827562</v>
+      </c>
+      <c r="F81">
+        <v>0.02461777879541572</v>
+      </c>
+      <c r="G81">
+        <v>-0.006474851244179206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1637798976728141</v>
+        <v>-0.1597324767864397</v>
       </c>
       <c r="C82">
-        <v>-0.02036630102322116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01713270716648942</v>
+      </c>
+      <c r="D82">
+        <v>0.1393882266783834</v>
+      </c>
+      <c r="E82">
+        <v>0.1560011563038732</v>
+      </c>
+      <c r="F82">
+        <v>-0.02534402133597167</v>
+      </c>
+      <c r="G82">
+        <v>0.02141440251341137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05435944583823675</v>
+        <v>-0.05112481207536795</v>
       </c>
       <c r="C83">
-        <v>0.06616415064943543</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06020353551387041</v>
+      </c>
+      <c r="D83">
+        <v>-0.02287671249655548</v>
+      </c>
+      <c r="E83">
+        <v>-0.01692080209775259</v>
+      </c>
+      <c r="F83">
+        <v>0.01557095789257078</v>
+      </c>
+      <c r="G83">
+        <v>-0.0512835514752539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.0475199286888309</v>
+        <v>-0.04672282935176841</v>
       </c>
       <c r="C84">
-        <v>0.0731567964527839</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07177094058978141</v>
+      </c>
+      <c r="D84">
+        <v>-0.0126208148379248</v>
+      </c>
+      <c r="E84">
+        <v>0.02150369754066324</v>
+      </c>
+      <c r="F84">
+        <v>-0.03327027621587371</v>
+      </c>
+      <c r="G84">
+        <v>-0.06624617793023546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1400571890341194</v>
+        <v>-0.1354167427591955</v>
       </c>
       <c r="C85">
-        <v>0.005863247977771355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.005308295264839555</v>
+      </c>
+      <c r="D85">
+        <v>0.06917102065986976</v>
+      </c>
+      <c r="E85">
+        <v>0.139822766889544</v>
+      </c>
+      <c r="F85">
+        <v>-0.08137072525081508</v>
+      </c>
+      <c r="G85">
+        <v>-0.01119792436694031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08235312848313305</v>
+        <v>-0.08263692397802004</v>
       </c>
       <c r="C86">
-        <v>0.1509737685903693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.157566046085484</v>
+      </c>
+      <c r="D86">
+        <v>-0.8327924364087486</v>
+      </c>
+      <c r="E86">
+        <v>0.2186149367035767</v>
+      </c>
+      <c r="F86">
+        <v>0.2378984597738784</v>
+      </c>
+      <c r="G86">
+        <v>0.09646255252766631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08897851350512252</v>
+        <v>-0.08414044536415279</v>
       </c>
       <c r="C87">
-        <v>0.1048926660952074</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1006493749509133</v>
+      </c>
+      <c r="D87">
+        <v>0.04693282146296434</v>
+      </c>
+      <c r="E87">
+        <v>-0.2648609978202054</v>
+      </c>
+      <c r="F87">
+        <v>-0.03870854160558369</v>
+      </c>
+      <c r="G87">
+        <v>-0.03754430661502838</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.059908147638753</v>
+        <v>-0.05929924621444647</v>
       </c>
       <c r="C88">
-        <v>0.06395721973825762</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06437373188999929</v>
+      </c>
+      <c r="D88">
+        <v>0.02261748192670556</v>
+      </c>
+      <c r="E88">
+        <v>0.03832502818350342</v>
+      </c>
+      <c r="F88">
+        <v>-0.006640482176836326</v>
+      </c>
+      <c r="G88">
+        <v>0.01330988626963799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.151524084936741</v>
+        <v>-0.1502198948439759</v>
       </c>
       <c r="C89">
-        <v>-0.2036777368412888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2091000331956112</v>
+      </c>
+      <c r="D89">
+        <v>-0.04269101798429924</v>
+      </c>
+      <c r="E89">
+        <v>-0.1002710302519597</v>
+      </c>
+      <c r="F89">
+        <v>-0.02552094454617861</v>
+      </c>
+      <c r="G89">
+        <v>-0.01482892516229316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1861757125944322</v>
+        <v>-0.187750277359793</v>
       </c>
       <c r="C90">
-        <v>-0.2440647912892808</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.243221373461977</v>
+      </c>
+      <c r="D90">
+        <v>-0.1024360547813504</v>
+      </c>
+      <c r="E90">
+        <v>-0.174316655336485</v>
+      </c>
+      <c r="F90">
+        <v>-0.02039256828345921</v>
+      </c>
+      <c r="G90">
+        <v>0.05158775503737815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1258534712047217</v>
+        <v>-0.1196366873468441</v>
       </c>
       <c r="C91">
-        <v>-0.01948822917028282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01795318159363401</v>
+      </c>
+      <c r="D91">
+        <v>0.0321950368587567</v>
+      </c>
+      <c r="E91">
+        <v>0.2186583119480603</v>
+      </c>
+      <c r="F91">
+        <v>0.02746275325074626</v>
+      </c>
+      <c r="G91">
+        <v>-0.03641679360301683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1709027966045791</v>
+        <v>-0.1721202902275503</v>
       </c>
       <c r="C92">
-        <v>-0.2628456368129845</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2742274365794731</v>
+      </c>
+      <c r="D92">
+        <v>-0.1376412440907089</v>
+      </c>
+      <c r="E92">
+        <v>-0.1367275488184466</v>
+      </c>
+      <c r="F92">
+        <v>-0.08916807432720888</v>
+      </c>
+      <c r="G92">
+        <v>-0.08760570434835527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1795188875963892</v>
+        <v>-0.1860146240486856</v>
       </c>
       <c r="C93">
-        <v>-0.2289021866922308</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2300638463733175</v>
+      </c>
+      <c r="D93">
+        <v>-0.07873991153503257</v>
+      </c>
+      <c r="E93">
+        <v>-0.06968471545073458</v>
+      </c>
+      <c r="F93">
+        <v>-0.05822746032496565</v>
+      </c>
+      <c r="G93">
+        <v>-0.01185372308604663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1199698809746118</v>
+        <v>-0.1148748936862477</v>
       </c>
       <c r="C94">
-        <v>0.03112831251648543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03140246531766708</v>
+      </c>
+      <c r="D94">
+        <v>0.03564354837467348</v>
+      </c>
+      <c r="E94">
+        <v>0.1725979855567527</v>
+      </c>
+      <c r="F94">
+        <v>-0.03158775446522556</v>
+      </c>
+      <c r="G94">
+        <v>-0.02937829483432762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.121216680875386</v>
+        <v>-0.119784698862882</v>
       </c>
       <c r="C95">
-        <v>0.1042626377264783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1151024530229651</v>
+      </c>
+      <c r="D95">
+        <v>-0.05768027922248454</v>
+      </c>
+      <c r="E95">
+        <v>-0.05579424721261911</v>
+      </c>
+      <c r="F95">
+        <v>-0.05097044770418545</v>
+      </c>
+      <c r="G95">
+        <v>-0.09180639394604832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1240040611979422</v>
+        <v>-0.1212431423862122</v>
       </c>
       <c r="C96">
-        <v>0.1078882809029567</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1120701559466604</v>
+      </c>
+      <c r="D96">
+        <v>0.02856163344443721</v>
+      </c>
+      <c r="E96">
+        <v>-0.008899119482926559</v>
+      </c>
+      <c r="F96">
+        <v>-0.03278353782702648</v>
+      </c>
+      <c r="G96">
+        <v>0.02652127631343864</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.193882379882197</v>
+        <v>-0.199098848813161</v>
       </c>
       <c r="C97">
-        <v>0.02732814674247249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02020264185030051</v>
+      </c>
+      <c r="D97">
+        <v>0.2212150188853736</v>
+      </c>
+      <c r="E97">
+        <v>-0.09326218981022537</v>
+      </c>
+      <c r="F97">
+        <v>0.8132343983896064</v>
+      </c>
+      <c r="G97">
+        <v>-0.3216609582485679</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1982898005363786</v>
+        <v>-0.2053946812182131</v>
       </c>
       <c r="C98">
-        <v>0.01521688522323818</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01773769611469203</v>
+      </c>
+      <c r="D98">
+        <v>0.03841600363109721</v>
+      </c>
+      <c r="E98">
+        <v>-0.1087233099247727</v>
+      </c>
+      <c r="F98">
+        <v>0.135222981536293</v>
+      </c>
+      <c r="G98">
+        <v>0.3202601327198811</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05051939074206439</v>
+        <v>-0.05046284237814706</v>
       </c>
       <c r="C99">
-        <v>0.05838455920662545</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05787910859691181</v>
+      </c>
+      <c r="D99">
+        <v>-0.002851186579093566</v>
+      </c>
+      <c r="E99">
+        <v>-0.03746503251737249</v>
+      </c>
+      <c r="F99">
+        <v>-0.02411963362666107</v>
+      </c>
+      <c r="G99">
+        <v>-0.01613095502339845</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1162416223375146</v>
+        <v>-0.110904348634151</v>
       </c>
       <c r="C100">
-        <v>0.27891770494456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2684993067489787</v>
+      </c>
+      <c r="D100">
+        <v>0.03838509160627268</v>
+      </c>
+      <c r="E100">
+        <v>-0.3068277798326127</v>
+      </c>
+      <c r="F100">
+        <v>0.1847418614050265</v>
+      </c>
+      <c r="G100">
+        <v>0.5107430866512682</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02573845351272425</v>
+        <v>-0.02688357466428454</v>
       </c>
       <c r="C101">
-        <v>0.05571704684510503</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05575954577314521</v>
+      </c>
+      <c r="D101">
+        <v>-0.04907623215875178</v>
+      </c>
+      <c r="E101">
+        <v>-0.03041028207163655</v>
+      </c>
+      <c r="F101">
+        <v>-0.03937697387516049</v>
+      </c>
+      <c r="G101">
+        <v>-0.04707931007573461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
